--- a/rosters/2023/Cleveland/Cleveland.xlsx
+++ b/rosters/2023/Cleveland/Cleveland.xlsx
@@ -58,24 +58,24 @@
     <t>Caris LeVert</t>
   </si>
   <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Kevin Love</t>
   </si>
   <si>
-    <t>Darius Garland</t>
+    <t>Lamar Stevens</t>
   </si>
   <si>
     <t>Raul Neto</t>
   </si>
   <si>
-    <t>Lamar Stevens</t>
-  </si>
-  <si>
     <t>Robin Lopez</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>Mamadi Diakite (TW)</t>
   </si>
   <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
     <t>Isaiah Mobley (TW)</t>
   </si>
   <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
     <t>Dylan Windler</t>
   </si>
   <si>
@@ -121,24 +121,24 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>January 26, 2001</t>
   </si>
   <si>
@@ -151,24 +151,24 @@
     <t>August 25, 1994</t>
   </si>
   <si>
+    <t>April 21, 1998</t>
+  </si>
+  <si>
+    <t>January 26, 2000</t>
+  </si>
+  <si>
     <t>September 7, 1996</t>
   </si>
   <si>
-    <t>April 21, 1998</t>
-  </si>
-  <si>
     <t>September 7, 1988</t>
   </si>
   <si>
-    <t>January 26, 2000</t>
+    <t>July 9, 1997</t>
   </si>
   <si>
     <t>May 19, 1992</t>
   </si>
   <si>
-    <t>July 9, 1997</t>
-  </si>
-  <si>
     <t>April 1, 1988</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>January 21, 1997</t>
   </si>
   <si>
+    <t>October 21, 1990</t>
+  </si>
+  <si>
     <t>September 24, 1999</t>
   </si>
   <si>
-    <t>October 21, 1990</t>
-  </si>
-  <si>
     <t>September 22, 1996</t>
   </si>
   <si>
@@ -214,21 +214,21 @@
     <t>6</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
     <t>Penn State</t>
   </si>
   <si>
@@ -277,24 +277,24 @@
     <t>https://www.basketball-reference.com/players/l/leverca01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/allenja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/garlada01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/allenja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/garlada01.html</t>
+    <t>https://www.basketball-reference.com/players/s/stevela01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/netora01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/stevela01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/lopezro01.html</t>
   </si>
   <si>
@@ -304,10 +304,10 @@
     <t>https://www.basketball-reference.com/players/d/diakima01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/rubiori01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mobleis01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/rubiori01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/windldy01.html</t>
@@ -861,19 +861,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -896,19 +896,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -917,7 +917,7 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
@@ -931,19 +931,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -952,7 +952,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -966,19 +966,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -1001,28 +1001,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -1033,31 +1036,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
@@ -1089,7 +1089,7 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -1124,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -1173,31 +1173,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
         <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1208,28 +1205,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
         <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>97</v>

--- a/rosters/2023/Cleveland/Cleveland.xlsx
+++ b/rosters/2023/Cleveland/Cleveland.xlsx
@@ -67,21 +67,18 @@
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Kevin Love</t>
-  </si>
-  <si>
     <t>Lamar Stevens</t>
   </si>
   <si>
     <t>Raul Neto</t>
   </si>
   <si>
+    <t>Dean Wade</t>
+  </si>
+  <si>
     <t>Robin Lopez</t>
   </si>
   <si>
-    <t>Dean Wade</t>
-  </si>
-  <si>
     <t>Mamadi Diakite (TW)</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>Isaiah Mobley (TW)</t>
   </si>
   <si>
+    <t>Danny Green</t>
+  </si>
+  <si>
     <t>Dylan Windler</t>
   </si>
   <si>
@@ -127,9 +127,6 @@
     <t>6-1</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -160,21 +157,18 @@
     <t>September 7, 1996</t>
   </si>
   <si>
-    <t>September 7, 1988</t>
-  </si>
-  <si>
     <t>July 9, 1997</t>
   </si>
   <si>
     <t>May 19, 1992</t>
   </si>
   <si>
+    <t>November 20, 1996</t>
+  </si>
+  <si>
     <t>April 1, 1988</t>
   </si>
   <si>
-    <t>November 20, 1996</t>
-  </si>
-  <si>
     <t>January 21, 1997</t>
   </si>
   <si>
@@ -184,6 +178,9 @@
     <t>September 24, 1999</t>
   </si>
   <si>
+    <t>June 22, 1987</t>
+  </si>
+  <si>
     <t>September 22, 1996</t>
   </si>
   <si>
@@ -217,18 +214,21 @@
     <t>3</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Auburn</t>
   </si>
   <si>
@@ -247,21 +247,21 @@
     <t>Louisville</t>
   </si>
   <si>
-    <t>UCLA</t>
-  </si>
-  <si>
     <t>Penn State</t>
   </si>
   <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
     <t>Stanford</t>
   </si>
   <si>
-    <t>Kansas State</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>UNC</t>
+  </si>
+  <si>
     <t>Belmont</t>
   </si>
   <si>
@@ -286,21 +286,18 @@
     <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/loveke01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/stevela01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/netora01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wadede01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lopezro01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wadede01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/diakima01.html</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mobleis01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/windldy01.html</t>
@@ -739,13 +739,13 @@
         <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
         <v>71</v>
@@ -774,13 +774,13 @@
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>72</v>
@@ -809,13 +809,13 @@
         <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>85</v>
@@ -841,13 +841,13 @@
         <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
         <v>73</v>
@@ -876,13 +876,13 @@
         <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -911,13 +911,13 @@
         <v>192</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
@@ -946,13 +946,13 @@
         <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -975,19 +975,19 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -1001,31 +1001,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -1036,28 +1033,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
@@ -1083,10 +1083,10 @@
         <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
@@ -1103,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1112,19 +1112,19 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
         <v>80</v>
@@ -1138,31 +1138,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
       <c r="F14">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>95</v>
@@ -1173,28 +1170,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
         <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>96</v>
@@ -1205,31 +1205,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
         <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>97</v>
@@ -1252,13 +1252,13 @@
         <v>196</v>
       </c>
       <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" t="s">
         <v>82</v>

--- a/rosters/2023/Cleveland/Cleveland.xlsx
+++ b/rosters/2023/Cleveland/Cleveland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -79,18 +79,21 @@
     <t>Robin Lopez</t>
   </si>
   <si>
+    <t>Ricky Rubio</t>
+  </si>
+  <si>
     <t>Mamadi Diakite (TW)</t>
   </si>
   <si>
-    <t>Ricky Rubio</t>
-  </si>
-  <si>
     <t>Isaiah Mobley (TW)</t>
   </si>
   <si>
     <t>Danny Green</t>
   </si>
   <si>
+    <t>Sam Merrill</t>
+  </si>
+  <si>
     <t>Dylan Windler</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
     <t>January 26, 2001</t>
   </si>
   <si>
@@ -169,18 +175,21 @@
     <t>April 1, 1988</t>
   </si>
   <si>
+    <t>October 21, 1990</t>
+  </si>
+  <si>
     <t>January 21, 1997</t>
   </si>
   <si>
-    <t>October 21, 1990</t>
-  </si>
-  <si>
     <t>September 24, 1999</t>
   </si>
   <si>
     <t>June 22, 1987</t>
   </si>
   <si>
+    <t>May 15, 1996</t>
+  </si>
+  <si>
     <t>September 22, 1996</t>
   </si>
   <si>
@@ -193,12 +202,12 @@
     <t>br</t>
   </si>
   <si>
+    <t>es</t>
+  </si>
+  <si>
     <t>gn</t>
   </si>
   <si>
-    <t>es</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -262,6 +271,9 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
     <t>Belmont</t>
   </si>
   <si>
@@ -298,16 +310,19 @@
     <t>https://www.basketball-reference.com/players/l/lopezro01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/rubiori01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/diakima01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/rubiori01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mobleis01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/merrisa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/windldy01.html</t>
@@ -681,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +745,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -765,28 +780,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,25 +815,25 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -832,28 +847,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -867,28 +882,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,28 +917,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>192</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,28 +952,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,28 +987,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>230</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,25 +1022,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,28 +1054,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>228</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,28 +1089,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1103,34 +1118,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1138,31 +1150,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
       <c r="F14">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1176,28 +1191,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1211,60 +1226,95 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>205</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
         <v>196</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>98</v>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1285,6 +1335,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Cleveland/Cleveland.xlsx
+++ b/rosters/2023/Cleveland/Cleveland.xlsx
@@ -61,12 +61,12 @@
     <t>Jarrett Allen</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
     <t>Lamar Stevens</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>April 21, 1998</t>
   </si>
   <si>
+    <t>September 7, 1996</t>
+  </si>
+  <si>
     <t>January 26, 2000</t>
   </si>
   <si>
-    <t>September 7, 1996</t>
-  </si>
-  <si>
     <t>July 9, 1997</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>Louisville</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>Penn State</t>
   </si>
   <si>
@@ -292,10 +292,10 @@
     <t>https://www.basketball-reference.com/players/a/allenja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/garlada01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/stevela01.html</t>
@@ -911,19 +911,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -932,7 +932,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
@@ -946,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -967,7 +967,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>

--- a/rosters/2023/Cleveland/Cleveland.xlsx
+++ b/rosters/2023/Cleveland/Cleveland.xlsx
@@ -58,15 +58,15 @@
     <t>Caris LeVert</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>Lamar Stevens</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Danny Green</t>
   </si>
   <si>
+    <t>Dylan Windler</t>
+  </si>
+  <si>
     <t>Sam Merrill</t>
   </si>
   <si>
-    <t>Dylan Windler</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -154,15 +154,15 @@
     <t>August 25, 1994</t>
   </si>
   <si>
+    <t>January 26, 2000</t>
+  </si>
+  <si>
     <t>April 21, 1998</t>
   </si>
   <si>
     <t>September 7, 1996</t>
   </si>
   <si>
-    <t>January 26, 2000</t>
-  </si>
-  <si>
     <t>July 9, 1997</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>June 22, 1987</t>
   </si>
   <si>
+    <t>September 22, 1996</t>
+  </si>
+  <si>
     <t>May 15, 1996</t>
   </si>
   <si>
-    <t>September 22, 1996</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -247,15 +247,15 @@
     <t>Michigan</t>
   </si>
   <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
     <t>Penn State</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>Belmont</t>
+  </si>
+  <si>
     <t>Utah State University</t>
   </si>
   <si>
-    <t>Belmont</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/o/okorois01.html</t>
   </si>
   <si>
@@ -289,15 +289,15 @@
     <t>https://www.basketball-reference.com/players/l/leverca01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/garlada01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/allenja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/garlada01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/stevela01.html</t>
   </si>
   <si>
@@ -322,10 +322,10 @@
     <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/windldy01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/merrisa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/windldy01.html</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -897,7 +897,7 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>77</v>
@@ -911,19 +911,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -946,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -967,7 +967,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -1022,10 +1022,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
         <v>180</v>
@@ -1089,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1124,7 +1124,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1255,19 +1255,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -1289,17 +1289,20 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>

--- a/rosters/2023/Cleveland/Cleveland.xlsx
+++ b/rosters/2023/Cleveland/Cleveland.xlsx
@@ -46,27 +46,27 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
+    <t>Cedi Osman</t>
+  </si>
+  <si>
     <t>Isaac Okoro</t>
   </si>
   <si>
-    <t>Evan Mobley</t>
-  </si>
-  <si>
-    <t>Cedi Osman</t>
-  </si>
-  <si>
     <t>Caris LeVert</t>
   </si>
   <si>
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
     <t>Lamar Stevens</t>
   </si>
   <si>
@@ -91,18 +91,18 @@
     <t>Danny Green</t>
   </si>
   <si>
+    <t>Sam Merrill</t>
+  </si>
+  <si>
     <t>Dylan Windler</t>
   </si>
   <si>
-    <t>Sam Merrill</t>
+    <t>PF</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -112,15 +112,15 @@
     <t>C</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
@@ -142,27 +142,27 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>June 18, 2001</t>
+  </si>
+  <si>
+    <t>April 8, 1995</t>
+  </si>
+  <si>
     <t>January 26, 2001</t>
   </si>
   <si>
-    <t>June 18, 2001</t>
-  </si>
-  <si>
-    <t>April 8, 1995</t>
-  </si>
-  <si>
     <t>August 25, 1994</t>
   </si>
   <si>
     <t>January 26, 2000</t>
   </si>
   <si>
+    <t>September 7, 1996</t>
+  </si>
+  <si>
     <t>April 21, 1998</t>
   </si>
   <si>
-    <t>September 7, 1996</t>
-  </si>
-  <si>
     <t>July 9, 1997</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>June 22, 1987</t>
   </si>
   <si>
+    <t>May 15, 1996</t>
+  </si>
+  <si>
     <t>September 22, 1996</t>
   </si>
   <si>
-    <t>May 15, 1996</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -208,15 +208,15 @@
     <t>gn</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -238,24 +238,24 @@
     <t>13</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>Auburn</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Michigan</t>
   </si>
   <si>
     <t>Vanderbilt</t>
   </si>
   <si>
+    <t>Louisville</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>Penn State</t>
   </si>
   <si>
@@ -271,33 +271,33 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
     <t>Belmont</t>
   </si>
   <si>
-    <t>Utah State University</t>
+    <t>https://www.basketball-reference.com/players/m/mobleev01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/o/osmande01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/okorois01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mobleev01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/o/osmande01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/leverca01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/garlada01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/allenja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mitchdo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/stevela01.html</t>
   </si>
   <si>
@@ -322,10 +322,10 @@
     <t>https://www.basketball-reference.com/players/g/greenda02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/merrisa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/windldy01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/merrisa01.html</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -751,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -786,19 +786,16 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>88</v>
@@ -809,28 +806,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>89</v>
@@ -911,19 +911,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -932,7 +932,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
@@ -946,19 +946,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -967,7 +967,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -1002,7 +1002,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -1054,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>281</v>
@@ -1156,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -1171,7 +1171,7 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
         <v>83</v>
@@ -1191,7 +1191,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -1209,7 +1209,7 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>100</v>
@@ -1255,19 +1255,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -1276,7 +1276,7 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>85</v>
@@ -1290,19 +1290,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
@@ -1311,7 +1311,7 @@
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>86</v>
